--- a/Interaction list.xlsx
+++ b/Interaction list.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/francisca_mann_uc_cl/Documents/Diversidad animal/Escritorio/Revisión SciRep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/francisca_mann_uc_cl/Documents/Diversidad animal/Escritorio/conejo/Red_Magallanes/Revisión SciRep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{1B005AFE-9DB1-4ABE-98A8-0840DE148C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79CD3DC9-A8DE-477A-BAC7-CD800D7AC376}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{1B005AFE-9DB1-4ABE-98A8-0840DE148C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C3A8DF-3AC7-4417-AD5C-37C68161A63B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{78B5CDF3-D1F3-4C33-A8D8-2455BD29CDDA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{78B5CDF3-D1F3-4C33-A8D8-2455BD29CDDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Links!$A$1:$B$537</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Links!$A$1:$B$536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodes!$A$1:$D$208</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -748,10 +749,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -789,7 +794,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -895,7 +900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1037,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1047,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3666778E-F578-42AC-9E37-06707047AEEB}">
   <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1086,13 +1091,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1100,10 +1105,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1114,13 +1119,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1128,13 +1133,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1142,10 +1147,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1156,13 +1161,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1170,10 +1175,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1184,10 +1189,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1198,10 +1203,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1212,10 +1217,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1226,10 +1231,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1240,13 +1245,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1254,10 +1259,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1268,10 +1273,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1282,10 +1287,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1296,10 +1301,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1310,13 +1315,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1324,13 +1329,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1338,10 +1343,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1352,27 +1357,27 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1380,10 +1385,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1394,13 +1399,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1408,10 +1413,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1422,13 +1427,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1436,10 +1441,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1450,10 +1455,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1464,13 +1469,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1478,13 +1483,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1492,13 +1497,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1506,10 +1511,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1520,13 +1525,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1534,13 +1539,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1548,13 +1553,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1562,13 +1567,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1576,13 +1581,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1590,10 +1595,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1604,10 +1609,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1618,10 +1623,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1632,13 +1637,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1646,10 +1651,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1660,10 +1665,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1674,13 +1679,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1688,10 +1693,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1702,10 +1707,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1716,13 +1721,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1730,10 +1735,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1744,10 +1749,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1758,10 +1763,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1772,10 +1777,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1786,10 +1791,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1814,10 +1819,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1828,10 +1833,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1842,10 +1847,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1856,10 +1861,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1870,13 +1875,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1884,10 +1889,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1898,13 +1903,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1912,13 +1917,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1926,13 +1931,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1940,10 +1945,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1954,13 +1959,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1968,10 +1973,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1982,10 +1987,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1996,13 +2001,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2010,10 +2015,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2024,10 +2029,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2038,13 +2043,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2052,10 +2057,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2066,10 +2071,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2080,10 +2085,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2094,10 +2099,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2108,10 +2113,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2122,13 +2127,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2136,13 +2141,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2150,10 +2155,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2164,13 +2169,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2178,10 +2183,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2192,10 +2197,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2206,13 +2211,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2220,13 +2225,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2234,10 +2239,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2248,10 +2253,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2262,13 +2267,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2276,10 +2281,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2290,13 +2295,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2304,10 +2309,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2318,10 +2323,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2332,10 +2337,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2346,10 +2351,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2360,10 +2365,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
-        <v>268</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2374,10 +2379,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2388,10 +2393,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2402,10 +2407,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2416,10 +2421,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2430,10 +2435,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>309</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2444,13 +2449,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2458,13 +2463,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>311</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2472,10 +2477,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2486,10 +2491,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2500,13 +2505,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2514,10 +2519,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
-        <v>315</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2528,10 +2533,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2542,13 +2547,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2556,10 +2561,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2570,13 +2575,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
-        <v>319</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2584,10 +2589,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2598,10 +2603,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2612,10 +2617,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
-        <v>322</v>
+        <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2626,10 +2631,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
-        <v>326</v>
+        <v>164</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2640,10 +2645,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2654,10 +2659,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2668,10 +2673,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2682,10 +2687,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
-        <v>349</v>
+        <v>168</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2696,10 +2701,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
-        <v>352</v>
+        <v>169</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2710,10 +2715,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
-        <v>364</v>
+        <v>173</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2724,13 +2729,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>365</v>
+        <v>179</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2738,13 +2743,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>368</v>
+        <v>181</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2752,10 +2757,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
-        <v>370</v>
+        <v>187</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2766,10 +2771,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
-        <v>372</v>
+        <v>188</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2780,10 +2785,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
-        <v>373</v>
+        <v>189</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2794,13 +2799,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2808,13 +2813,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2822,13 +2827,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2836,10 +2841,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
-        <v>385</v>
+        <v>193</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2850,13 +2855,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
-        <v>386</v>
+        <v>194</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2864,13 +2869,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
-        <v>389</v>
+        <v>195</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2878,13 +2883,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
-        <v>391</v>
+        <v>196</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2892,13 +2897,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
-        <v>392</v>
+        <v>198</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2906,13 +2911,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2920,10 +2925,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -2934,13 +2939,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2948,13 +2953,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2962,13 +2967,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -2976,13 +2981,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2990,13 +2995,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3004,27 +3009,27 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -3032,13 +3037,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3046,13 +3051,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3060,13 +3065,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3074,13 +3079,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3088,13 +3093,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3102,13 +3107,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3116,13 +3121,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3130,13 +3135,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3144,13 +3149,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -3158,13 +3163,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3172,13 +3177,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3186,13 +3191,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -3200,13 +3205,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3214,13 +3219,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -3228,13 +3233,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -3242,13 +3247,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3256,13 +3261,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -3270,13 +3275,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
-        <v>371</v>
+        <v>268</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3284,13 +3289,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -3298,13 +3303,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -3312,13 +3317,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3326,13 +3331,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -3340,13 +3345,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -3354,13 +3359,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -3368,13 +3373,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -3382,13 +3387,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -3396,13 +3401,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
-        <v>71</v>
+        <v>312</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3410,13 +3415,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -3424,13 +3429,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -3438,13 +3443,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3452,13 +3457,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
-        <v>94</v>
+        <v>316</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -3466,13 +3471,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -3480,13 +3485,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -3494,13 +3499,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -3508,13 +3513,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -3522,13 +3527,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3536,13 +3541,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
-        <v>124</v>
+        <v>322</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3550,13 +3555,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -3564,13 +3569,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3578,13 +3583,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -3592,13 +3597,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -3606,13 +3611,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -3620,13 +3625,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -3634,13 +3639,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -3648,13 +3653,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3662,13 +3667,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -3676,10 +3681,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -3690,13 +3695,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3704,13 +3709,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -3718,13 +3723,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -3732,13 +3737,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
-        <v>239</v>
+        <v>373</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -3746,10 +3751,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
-        <v>251</v>
+        <v>374</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C193">
         <v>2</v>
@@ -3760,24 +3765,24 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A195" s="1">
-        <v>253</v>
+      <c r="A195" s="3">
+        <v>378</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -3787,11 +3792,11 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A196" s="1">
-        <v>254</v>
+      <c r="A196" s="3">
+        <v>379</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -3802,10 +3807,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C197">
         <v>2</v>
@@ -3816,13 +3821,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3830,10 +3835,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
-        <v>258</v>
+        <v>382</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -3844,13 +3849,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -3858,13 +3863,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
-        <v>269</v>
+        <v>384</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -3872,13 +3877,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -3886,38 +3891,38 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A204" s="3">
-        <v>378</v>
+      <c r="A204" s="1">
+        <v>389</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A205" s="3">
-        <v>379</v>
+      <c r="A205" s="1">
+        <v>390</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -3928,13 +3933,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -3942,13 +3947,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -3956,19 +3961,24 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D208" xr:uid="{3666778E-F578-42AC-9E37-06707047AEEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D208">
+      <sortCondition ref="A1:A208"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D208">
     <sortCondition ref="C2:C208"/>
   </sortState>
@@ -3978,11 +3988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBD0C03-4D23-452F-9196-608BCD832724}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B537"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A526" zoomScale="61" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3995,231 +4004,231 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -4235,71 +4244,71 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>6</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>6</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>9</v>
       </c>
@@ -4323,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>9</v>
       </c>
@@ -4331,7 +4340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>9</v>
       </c>
@@ -4339,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>9</v>
       </c>
@@ -4347,7 +4356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>9</v>
       </c>
@@ -4355,7 +4364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>9</v>
       </c>
@@ -4363,7 +4372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>9</v>
       </c>
@@ -4371,7 +4380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>9</v>
       </c>
@@ -4379,7 +4388,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>11</v>
       </c>
@@ -4387,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>11</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>11</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>11</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>11</v>
       </c>
@@ -4419,319 +4428,319 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>13</v>
       </c>
       <c r="B55">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>13</v>
       </c>
       <c r="B56">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>13</v>
       </c>
       <c r="B57">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>13</v>
       </c>
       <c r="B58">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>13</v>
       </c>
       <c r="B59">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>13</v>
       </c>
       <c r="B60">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>13</v>
       </c>
       <c r="B61">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>13</v>
       </c>
       <c r="B62">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>13</v>
       </c>
       <c r="B63">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>13</v>
       </c>
       <c r="B64">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>13</v>
       </c>
       <c r="B65">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>13</v>
       </c>
       <c r="B66">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>13</v>
       </c>
       <c r="B67">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>13</v>
       </c>
       <c r="B68">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>13</v>
       </c>
       <c r="B69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>13</v>
       </c>
       <c r="B70">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>13</v>
       </c>
       <c r="B71">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>13</v>
       </c>
       <c r="B72">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>13</v>
       </c>
       <c r="B73">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>13</v>
       </c>
       <c r="B74">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>13</v>
       </c>
       <c r="B75">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>13</v>
       </c>
       <c r="B76">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>13</v>
       </c>
       <c r="B77">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>13</v>
       </c>
       <c r="B78">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>13</v>
       </c>
       <c r="B79">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>13</v>
       </c>
       <c r="B80">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>13</v>
       </c>
       <c r="B81">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>13</v>
       </c>
       <c r="B82">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>13</v>
       </c>
       <c r="B83">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>13</v>
       </c>
       <c r="B84">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>13</v>
       </c>
       <c r="B85">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>13</v>
       </c>
       <c r="B86">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>13</v>
       </c>
       <c r="B87">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>13</v>
       </c>
       <c r="B88">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>13</v>
       </c>
       <c r="B89">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>13</v>
       </c>
       <c r="B90">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>13</v>
       </c>
       <c r="B91">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>13</v>
       </c>
       <c r="B92">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>13</v>
       </c>
       <c r="B93">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4739,343 +4748,343 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>14</v>
       </c>
       <c r="B95">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>14</v>
       </c>
       <c r="B96">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>14</v>
       </c>
       <c r="B97">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>14</v>
       </c>
       <c r="B98">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>14</v>
       </c>
       <c r="B99">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>14</v>
       </c>
       <c r="B100">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>14</v>
       </c>
       <c r="B101">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>14</v>
       </c>
       <c r="B102">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>14</v>
       </c>
       <c r="B103">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>14</v>
       </c>
       <c r="B104">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>14</v>
       </c>
       <c r="B105">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>14</v>
       </c>
       <c r="B106">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>14</v>
       </c>
       <c r="B107">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>14</v>
       </c>
       <c r="B108">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>14</v>
       </c>
       <c r="B109">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>14</v>
       </c>
       <c r="B110">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>14</v>
       </c>
       <c r="B111">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>14</v>
       </c>
       <c r="B112">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>14</v>
       </c>
       <c r="B113">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>14</v>
       </c>
       <c r="B114">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>14</v>
       </c>
       <c r="B115">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>14</v>
       </c>
       <c r="B116">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>14</v>
       </c>
       <c r="B117">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>14</v>
       </c>
       <c r="B118">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>14</v>
       </c>
       <c r="B119">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>14</v>
       </c>
       <c r="B120">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>14</v>
       </c>
       <c r="B121">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>14</v>
       </c>
       <c r="B122">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>14</v>
       </c>
       <c r="B123">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>14</v>
       </c>
       <c r="B124">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>14</v>
       </c>
       <c r="B125">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>14</v>
       </c>
       <c r="B126">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>14</v>
       </c>
       <c r="B127">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>14</v>
       </c>
       <c r="B128">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>14</v>
       </c>
       <c r="B129">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>14</v>
       </c>
       <c r="B130">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>14</v>
       </c>
       <c r="B131">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>14</v>
       </c>
       <c r="B132">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>14</v>
       </c>
       <c r="B133">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>14</v>
       </c>
       <c r="B134">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>14</v>
       </c>
       <c r="B135">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>14</v>
       </c>
       <c r="B136">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>14</v>
       </c>
@@ -5083,31 +5092,31 @@
         <v>145</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>14</v>
       </c>
       <c r="B138">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>14</v>
       </c>
       <c r="B139">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>14</v>
       </c>
       <c r="B140">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5115,7 +5124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>16</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>16</v>
       </c>
@@ -5131,7 +5140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>16</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>16</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>16</v>
       </c>
@@ -5155,7 +5164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>16</v>
       </c>
@@ -5163,7 +5172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>17</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>17</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>17</v>
       </c>
@@ -5187,7 +5196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>17</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>17</v>
       </c>
@@ -5203,7 +5212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>17</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>18</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5227,7 +5236,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>18</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>18</v>
       </c>
@@ -5243,87 +5252,87 @@
         <v>122</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>18</v>
       </c>
       <c r="B158">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>18</v>
       </c>
       <c r="B159">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>18</v>
       </c>
       <c r="B160">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>18</v>
       </c>
       <c r="B161">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>18</v>
       </c>
       <c r="B162">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>18</v>
       </c>
       <c r="B163">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>18</v>
       </c>
       <c r="B164">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>18</v>
       </c>
       <c r="B165">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>18</v>
       </c>
       <c r="B166">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>18</v>
       </c>
       <c r="B167">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>20</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>20</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>20</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5355,7 +5364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>20</v>
       </c>
@@ -5363,7 +5372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>20</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>20</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>20</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>20</v>
       </c>
@@ -5395,7 +5404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>20</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>20</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>20</v>
       </c>
@@ -5419,7 +5428,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>20</v>
       </c>
@@ -5427,7 +5436,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>20</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>20</v>
       </c>
@@ -5443,7 +5452,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>22</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>22</v>
       </c>
@@ -5459,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>22</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>22</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>22</v>
       </c>
@@ -5483,7 +5492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>22</v>
       </c>
@@ -5491,7 +5500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>22</v>
       </c>
@@ -5499,7 +5508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>22</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>22</v>
       </c>
@@ -5515,7 +5524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>22</v>
       </c>
@@ -5523,7 +5532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>22</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>22</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>22</v>
       </c>
@@ -5547,7 +5556,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>22</v>
       </c>
@@ -5555,7 +5564,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>22</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>22</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>22</v>
       </c>
@@ -5579,7 +5588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>22</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>22</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>23</v>
       </c>
@@ -5603,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>23</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>23</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>23</v>
       </c>
@@ -5627,7 +5636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>23</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>23</v>
       </c>
@@ -5795,79 +5804,79 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>28</v>
       </c>
       <c r="B227">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>28</v>
       </c>
       <c r="B228">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>28</v>
       </c>
       <c r="B229">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>28</v>
       </c>
       <c r="B230">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>28</v>
       </c>
       <c r="B231">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>28</v>
       </c>
       <c r="B232">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>28</v>
       </c>
       <c r="B233">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>28</v>
       </c>
       <c r="B234">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>28</v>
       </c>
       <c r="B235">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>28</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>28</v>
       </c>
@@ -5883,7 +5892,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>28</v>
       </c>
@@ -5891,111 +5900,111 @@
         <v>94</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>28</v>
       </c>
       <c r="B239">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>28</v>
       </c>
       <c r="B240">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>28</v>
       </c>
       <c r="B241">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>28</v>
       </c>
       <c r="B242">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>28</v>
       </c>
       <c r="B243">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>28</v>
       </c>
       <c r="B244">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>28</v>
       </c>
       <c r="B245">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>28</v>
       </c>
       <c r="B246">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>28</v>
       </c>
       <c r="B247">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>28</v>
       </c>
       <c r="B248">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>28</v>
       </c>
       <c r="B249">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>28</v>
       </c>
       <c r="B250">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>28</v>
       </c>
       <c r="B251">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>28</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>28</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>30</v>
       </c>
@@ -6019,7 +6028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>30</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>30</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>30</v>
       </c>
@@ -6043,7 +6052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>30</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>30</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>30</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>30</v>
       </c>
@@ -6075,7 +6084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>30</v>
       </c>
@@ -6083,7 +6092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>30</v>
       </c>
@@ -6091,7 +6100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>30</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>30</v>
       </c>
@@ -6107,7 +6116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>30</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>30</v>
       </c>
@@ -6123,7 +6132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>30</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>30</v>
       </c>
@@ -6139,7 +6148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>30</v>
       </c>
@@ -6147,7 +6156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>30</v>
       </c>
@@ -6155,7 +6164,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>30</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>30</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>30</v>
       </c>
@@ -6179,7 +6188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>30</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>30</v>
       </c>
@@ -6195,7 +6204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>30</v>
       </c>
@@ -6203,7 +6212,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>30</v>
       </c>
@@ -6211,7 +6220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>30</v>
       </c>
@@ -6219,7 +6228,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>30</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>30</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>30</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>30</v>
       </c>
@@ -6251,7 +6260,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>30</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>30</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>30</v>
       </c>
@@ -6275,7 +6284,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>30</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>30</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>30</v>
       </c>
@@ -6299,7 +6308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>30</v>
       </c>
@@ -6307,7 +6316,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>30</v>
       </c>
@@ -6315,7 +6324,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>30</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>30</v>
       </c>
@@ -6331,7 +6340,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>30</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>30</v>
       </c>
@@ -6347,7 +6356,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>30</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>30</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>31</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>31</v>
       </c>
@@ -6379,15 +6388,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>31</v>
       </c>
       <c r="B300">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>31</v>
       </c>
@@ -6395,271 +6404,271 @@
         <v>53</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>31</v>
       </c>
       <c r="B302">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>31</v>
       </c>
       <c r="B303">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>31</v>
       </c>
       <c r="B304">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>31</v>
       </c>
       <c r="B305">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>31</v>
       </c>
       <c r="B306">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>31</v>
       </c>
       <c r="B307">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>31</v>
       </c>
       <c r="B308">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>31</v>
       </c>
       <c r="B309">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>31</v>
       </c>
       <c r="B310">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>31</v>
       </c>
       <c r="B311">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>31</v>
       </c>
       <c r="B312">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>31</v>
       </c>
       <c r="B313">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>31</v>
       </c>
       <c r="B314">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>31</v>
       </c>
       <c r="B315">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>31</v>
       </c>
       <c r="B316">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>31</v>
       </c>
       <c r="B317">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>31</v>
       </c>
       <c r="B318">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>31</v>
       </c>
       <c r="B319">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>31</v>
       </c>
       <c r="B320">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>31</v>
       </c>
       <c r="B321">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>31</v>
       </c>
       <c r="B322">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>31</v>
       </c>
       <c r="B323">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>31</v>
       </c>
       <c r="B324">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>31</v>
       </c>
       <c r="B325">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>31</v>
       </c>
       <c r="B326">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>31</v>
       </c>
       <c r="B327">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>31</v>
       </c>
       <c r="B328">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>31</v>
       </c>
       <c r="B329">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>31</v>
       </c>
       <c r="B330">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>31</v>
       </c>
       <c r="B331">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>31</v>
       </c>
       <c r="B332">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>31</v>
       </c>
       <c r="B333">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>31</v>
       </c>
       <c r="B334">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>31</v>
       </c>
@@ -6667,23 +6676,23 @@
         <v>194</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>31</v>
       </c>
       <c r="B336">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>31</v>
       </c>
       <c r="B337">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>33</v>
       </c>
@@ -6691,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>33</v>
       </c>
@@ -6699,7 +6708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>33</v>
       </c>
@@ -6707,7 +6716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>33</v>
       </c>
@@ -6715,7 +6724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>33</v>
       </c>
@@ -6723,7 +6732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>33</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>33</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>33</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>33</v>
       </c>
@@ -6755,7 +6764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>33</v>
       </c>
@@ -6763,7 +6772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>33</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>33</v>
       </c>
@@ -6779,7 +6788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>33</v>
       </c>
@@ -6787,7 +6796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>33</v>
       </c>
@@ -6795,7 +6804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>33</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>33</v>
       </c>
@@ -6811,63 +6820,63 @@
         <v>224</v>
       </c>
     </row>
-    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>36</v>
       </c>
       <c r="B354">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>36</v>
       </c>
       <c r="B355">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>36</v>
       </c>
       <c r="B356">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>36</v>
       </c>
       <c r="B357">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>36</v>
       </c>
       <c r="B358">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>36</v>
       </c>
       <c r="B359">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>36</v>
       </c>
       <c r="B360">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>36</v>
       </c>
@@ -6875,7 +6884,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>36</v>
       </c>
@@ -6883,7 +6892,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>36</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>36</v>
       </c>
@@ -6899,7 +6908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>36</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>36</v>
       </c>
@@ -6915,7 +6924,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>36</v>
       </c>
@@ -6923,7 +6932,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>36</v>
       </c>
@@ -6931,7 +6940,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>36</v>
       </c>
@@ -6939,7 +6948,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>36</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>36</v>
       </c>
@@ -6955,7 +6964,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>36</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>36</v>
       </c>
@@ -6971,7 +6980,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>36</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>36</v>
       </c>
@@ -6987,7 +6996,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>36</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>36</v>
       </c>
@@ -7003,71 +7012,71 @@
         <v>243</v>
       </c>
     </row>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>37</v>
       </c>
       <c r="B378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>37</v>
       </c>
       <c r="B379">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>37</v>
       </c>
       <c r="B380">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>37</v>
       </c>
       <c r="B381">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>37</v>
       </c>
       <c r="B382">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>37</v>
       </c>
       <c r="B383">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>37</v>
       </c>
       <c r="B384">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>37</v>
       </c>
       <c r="B385">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>37</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>167</v>
       </c>
@@ -7083,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>167</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>188</v>
       </c>
@@ -7099,7 +7108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>188</v>
       </c>
@@ -7107,7 +7116,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>188</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>188</v>
       </c>
@@ -7123,7 +7132,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>188</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>306</v>
       </c>
@@ -7139,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>306</v>
       </c>
@@ -7147,7 +7156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>306</v>
       </c>
@@ -7155,7 +7164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>306</v>
       </c>
@@ -7163,7 +7172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>306</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>306</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>306</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>306</v>
       </c>
@@ -7195,7 +7204,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>306</v>
       </c>
@@ -7203,7 +7212,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>306</v>
       </c>
@@ -7211,7 +7220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>307</v>
       </c>
@@ -7219,7 +7228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>307</v>
       </c>
@@ -7227,7 +7236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>307</v>
       </c>
@@ -7235,7 +7244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>307</v>
       </c>
@@ -7243,7 +7252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>307</v>
       </c>
@@ -7251,7 +7260,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>307</v>
       </c>
@@ -7259,7 +7268,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>308</v>
       </c>
@@ -7267,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>308</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>308</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>308</v>
       </c>
@@ -7291,7 +7300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>308</v>
       </c>
@@ -7299,7 +7308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>308</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>309</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>309</v>
       </c>
@@ -7323,7 +7332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>309</v>
       </c>
@@ -7331,7 +7340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>309</v>
       </c>
@@ -7339,7 +7348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>309</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>309</v>
       </c>
@@ -7355,7 +7364,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>309</v>
       </c>
@@ -7363,7 +7372,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>309</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>310</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>310</v>
       </c>
@@ -7387,7 +7396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>310</v>
       </c>
@@ -7395,7 +7404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>310</v>
       </c>
@@ -7403,7 +7412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>310</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>310</v>
       </c>
@@ -7419,7 +7428,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>310</v>
       </c>
@@ -7427,7 +7436,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>310</v>
       </c>
@@ -7435,7 +7444,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>310</v>
       </c>
@@ -7443,7 +7452,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>310</v>
       </c>
@@ -7451,7 +7460,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>310</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>310</v>
       </c>
@@ -7467,7 +7476,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>311</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>311</v>
       </c>
@@ -7483,7 +7492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>311</v>
       </c>
@@ -7491,7 +7500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>311</v>
       </c>
@@ -7499,7 +7508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>311</v>
       </c>
@@ -7507,7 +7516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>311</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>311</v>
       </c>
@@ -7523,7 +7532,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>312</v>
       </c>
@@ -7531,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>312</v>
       </c>
@@ -7539,7 +7548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>312</v>
       </c>
@@ -7547,7 +7556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>312</v>
       </c>
@@ -7555,7 +7564,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>312</v>
       </c>
@@ -7563,7 +7572,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>312</v>
       </c>
@@ -7571,7 +7580,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>312</v>
       </c>
@@ -7579,7 +7588,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>313</v>
       </c>
@@ -7587,7 +7596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>313</v>
       </c>
@@ -7595,7 +7604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>313</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>313</v>
       </c>
@@ -7611,7 +7620,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>313</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>313</v>
       </c>
@@ -7627,7 +7636,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>313</v>
       </c>
@@ -7635,7 +7644,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>313</v>
       </c>
@@ -7643,7 +7652,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>314</v>
       </c>
@@ -7651,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>314</v>
       </c>
@@ -7659,641 +7668,632 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>314</v>
       </c>
       <c r="B460">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>314</v>
       </c>
       <c r="B461">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>314</v>
       </c>
       <c r="B462">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>314</v>
       </c>
       <c r="B463">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>314</v>
       </c>
       <c r="B464">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>314</v>
       </c>
       <c r="B465">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B466">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>315</v>
       </c>
       <c r="B467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>315</v>
       </c>
       <c r="B468">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>315</v>
       </c>
       <c r="B469">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>315</v>
       </c>
       <c r="B470">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>315</v>
       </c>
       <c r="B471">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B472">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>316</v>
       </c>
       <c r="B473">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B474">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>317</v>
       </c>
       <c r="B475">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>317</v>
       </c>
       <c r="B476">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>317</v>
       </c>
       <c r="B477">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B478">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>318</v>
       </c>
       <c r="B479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>318</v>
       </c>
       <c r="B480">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>318</v>
       </c>
       <c r="B481">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>318</v>
       </c>
       <c r="B482">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>318</v>
       </c>
       <c r="B483">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>318</v>
       </c>
       <c r="B484">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>318</v>
       </c>
       <c r="B485">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>318</v>
       </c>
       <c r="B486">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>318</v>
       </c>
       <c r="B487">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>318</v>
       </c>
       <c r="B488">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>318</v>
       </c>
       <c r="B489">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>318</v>
       </c>
       <c r="B490">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>318</v>
       </c>
       <c r="B491">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>318</v>
       </c>
       <c r="B492">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>318</v>
       </c>
       <c r="B493">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>318</v>
       </c>
       <c r="B494">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B495">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>319</v>
       </c>
       <c r="B496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>319</v>
       </c>
       <c r="B497">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>319</v>
       </c>
       <c r="B498">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>319</v>
       </c>
       <c r="B499">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B500">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>320</v>
       </c>
       <c r="B501">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>320</v>
       </c>
       <c r="B502">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>320</v>
       </c>
       <c r="B503">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B504">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>321</v>
       </c>
       <c r="B505">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>321</v>
       </c>
       <c r="B506">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>321</v>
       </c>
       <c r="B507">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>321</v>
       </c>
       <c r="B508">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>321</v>
       </c>
       <c r="B509">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>321</v>
       </c>
       <c r="B510">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>321</v>
       </c>
       <c r="B511">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>321</v>
       </c>
       <c r="B512">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>321</v>
       </c>
       <c r="B513">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>321</v>
       </c>
       <c r="B514">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>321</v>
       </c>
       <c r="B515">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>321</v>
       </c>
       <c r="B516">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>321</v>
       </c>
       <c r="B517">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>321</v>
       </c>
       <c r="B518">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>321</v>
       </c>
       <c r="B519">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>321</v>
       </c>
       <c r="B520">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>321</v>
       </c>
       <c r="B521">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>321</v>
       </c>
       <c r="B522">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>321</v>
       </c>
       <c r="B523">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>321</v>
       </c>
       <c r="B524">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>321</v>
       </c>
       <c r="B525">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>321</v>
       </c>
       <c r="B526">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B527">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>322</v>
       </c>
       <c r="B528">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>322</v>
       </c>
       <c r="B529">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>322</v>
       </c>
       <c r="B530">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>322</v>
       </c>
       <c r="B531">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>322</v>
       </c>
       <c r="B532">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>322</v>
       </c>
       <c r="B533">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>322</v>
       </c>
       <c r="B534">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>322</v>
       </c>
       <c r="B535">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>322</v>
       </c>
       <c r="B536">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A537">
-        <v>322</v>
-      </c>
-      <c r="B537">
         <v>352</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B537" xr:uid="{4CBD0C03-4D23-452F-9196-608BCD832724}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="27"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:B536" xr:uid="{4CBD0C03-4D23-452F-9196-608BCD832724}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
+      <sortCondition ref="A1:A536"/>
+    </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B537">
-    <sortCondition ref="A2:A537"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B536">
+    <sortCondition ref="A2:A536"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>